--- a/src/test/resources/DataFiles/MasterTestData1.xlsx
+++ b/src/test/resources/DataFiles/MasterTestData1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>204</t>
   </si>
@@ -88,16 +88,7 @@
     <t>/Pune</t>
   </si>
   <si>
-    <t>{"name":"Kumar","job":"leader","updatedAt":"2021-07-18T19:36:02.943Z"}</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>{"City":"Pune","Temperature":"28 Degree celsius","Humidity":"88 Percent","Weather Description":"scattered clouds","Wind Speed":"77 Km per hour","Wind Direction degree":"34 Degree"}</t>
-  </si>
-  <si>
-    <t>{"name":"morpheus","job":"leader","id":"944","createdAt":"2021-07-19T17:25:11.273Z"}</t>
   </si>
   <si>
     <t>{
@@ -106,15 +97,6 @@
 }</t>
   </si>
   <si>
-    <t>{"City":"Pune","Temperature":"158 Degree celsius","Humidity":"15 Percent","Weather Description":"scattered clouds","Wind Speed":"77 Km per hour","Wind Direction degree":"17 Degree"}</t>
-  </si>
-  <si>
-    <t>{"name":"morpheus","job":"leader","id":"701","createdAt":"2021-07-19T17:28:53.392Z"}</t>
-  </si>
-  <si>
-    <t>{"name":"Kamal","job":"leader","updatedAt":"2021-07-19T17:28:54.223Z"}</t>
-  </si>
-  <si>
     <t>{"City":"Pune","Temperature":"116 Degree celsius","Humidity":"116 Percent","Weather Description":"scattered clouds","Wind Speed":"33 Km per hour","Wind Direction degree":"31 Degree"}</t>
   </si>
   <si>
@@ -122,6 +104,15 @@
   </si>
   <si>
     <t>{"name":"Kamal","job":"leader","updatedAt":"2021-10-22T05:47:41.819Z"}</t>
+  </si>
+  <si>
+    <t>{"City":"Pune","Temperature":"92 Degree celsius","Humidity":"123 Percent","Weather Description":"scattered clouds","Wind Speed":"170 Km per hour","Wind Direction degree":"5 Degree"}</t>
+  </si>
+  <si>
+    <t>{"name":"morpheus","job":"leader","id":"872","createdAt":"2021-10-22T10:02:48.170Z"}</t>
+  </si>
+  <si>
+    <t>{"name":"Kamal","job":"leader","updatedAt":"2021-10-22T10:02:48.858Z"}</t>
   </si>
 </sst>
 </file>
@@ -488,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,7 +538,7 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -573,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -596,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -622,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
